--- a/youtube videos/video update.xlsx
+++ b/youtube videos/video update.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\HiveEd\youtube videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\HiveEd\Notes\youtube videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A695A7-6979-419C-81B7-44332E55C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5290EE3-9239-4A40-BF8A-608302146848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B322DB0E-FC76-4AC0-AEAC-1AE9C5039F87}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Java Basics</t>
   </si>
@@ -42,19 +42,7 @@
     <t>Vs Code and basic stuff</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Rajnish =&gt; R</t>
-  </si>
-  <si>
-    <t>Sabari =&gt; S</t>
-  </si>
-  <si>
     <t>Class, Object, Package</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Tokens, DataTypes</t>
@@ -512,63 +500,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052AE66-FF28-478B-BF98-FC18C8E874AD}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>45591</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -576,327 +556,243 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2">
         <v>45595</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="2">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2">
         <v>45602</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="2">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2">
         <v>45609</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
   </sheetData>
